--- a/fw-ig/core-ig-r401/pull/14_FROM_phenopackets_vulcan_se-genomics-2.0.0_TO_main/ValueSet-phenotypic-component.xlsx
+++ b/fw-ig/core-ig-r401/pull/14_FROM_phenopackets_vulcan_se-genomics-2.0.0_TO_main/ValueSet-phenotypic-component.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T20:56:08+00:00</t>
+    <t>2023-01-26T17:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
